--- a/Study 2/results/negrecip_ml_results.xlsx
+++ b/Study 2/results/negrecip_ml_results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t xml:space="preserve">rowname</t>
   </si>
@@ -30,6 +30,12 @@
   </si>
   <si>
     <t xml:space="preserve">p.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ci.lower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ci.upper</t>
   </si>
   <si>
     <t xml:space="preserve">r_xy1y2</t>
@@ -455,10 +461,16 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="n">
         <v>0.215313756051559</v>
@@ -475,10 +487,16 @@
       <c r="F2" t="n">
         <v>0.0385298249117727</v>
       </c>
+      <c r="G2" t="n">
+        <v>0.0117359137272205</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.418891598375897</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" t="n">
         <v>0.038810534227908</v>
@@ -495,10 +513,16 @@
       <c r="F3" t="n">
         <v>0.263931270208087</v>
       </c>
+      <c r="G3" t="n">
+        <v>-0.0299349907384979</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.107556059194314</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" t="n">
         <v>0.0174280321619686</v>
@@ -515,10 +539,16 @@
       <c r="F4" t="n">
         <v>0.612394956967204</v>
       </c>
+      <c r="G4" t="n">
+        <v>-0.0508819802643883</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0857380445883255</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" t="n">
         <v>0.137239761141096</v>
@@ -535,10 +565,16 @@
       <c r="F5" t="n">
         <v>0.263931270208087</v>
       </c>
+      <c r="G5" t="n">
+        <v>-0.10585453306536</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.380334055347551</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" t="n">
         <v>0.0603265656782779</v>
@@ -555,10 +591,16 @@
       <c r="F6" t="n">
         <v>0.612394956967204</v>
       </c>
+      <c r="G6" t="n">
+        <v>-0.176126317402535</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.29677944875909</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" t="n">
         <v>0.135775114729962</v>
@@ -575,10 +617,16 @@
       <c r="F7" t="n">
         <v>0.263931270208088</v>
       </c>
+      <c r="G7" t="n">
+        <v>-0.104724835223661</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.376275064683585</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" t="n">
         <v>0.0609703811963298</v>
@@ -595,10 +643,16 @@
       <c r="F8" t="n">
         <v>0.612394956967204</v>
       </c>
+      <c r="G8" t="n">
+        <v>-0.178005967851821</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.299946730244481</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9" t="n">
         <v>0.0281192831949383</v>
@@ -615,10 +669,16 @@
       <c r="F9" t="n">
         <v>0.410723686385527</v>
       </c>
+      <c r="G9" t="n">
+        <v>-0.0396594531359149</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0958980195257914</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10" t="n">
         <v>0.133847462645053</v>
@@ -635,10 +695,16 @@
       <c r="F10" t="n">
         <v>0.0000000000000000000339183843974251</v>
       </c>
+      <c r="G10" t="n">
+        <v>0.11333002918473</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.154364896105377</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" t="n">
         <v>0.0213825020659394</v>
@@ -655,10 +721,16 @@
       <c r="F11" t="n">
         <v>0.0385298249117727</v>
       </c>
+      <c r="G11" t="n">
+        <v>0.00116547685628543</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0415995272755933</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12" t="n">
         <v>0.075572698912561</v>
@@ -667,10 +739,12 @@
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13" t="n">
         <v>0.0777113488736177</v>
@@ -679,10 +753,12 @@
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14" t="n">
         <v>-6.25967261606217</v>
@@ -691,10 +767,12 @@
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15" t="n">
         <v>-0.00673678112899891</v>
@@ -711,10 +789,16 @@
       <c r="F15" t="n">
         <v>0.84895424324379</v>
       </c>
+      <c r="G15" t="n">
+        <v>-0.0770426803641871</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0635691181061893</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16" t="n">
         <v>-0.0235680144295137</v>
@@ -731,10 +815,16 @@
       <c r="F16" t="n">
         <v>0.84895424324379</v>
       </c>
+      <c r="G16" t="n">
+        <v>-0.269526791466564</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.222390762607537</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B17" t="n">
         <v>-0.0218699679468689</v>
@@ -751,10 +841,16 @@
       <c r="F17" t="n">
         <v>0.856885643410683</v>
       </c>
+      <c r="G17" t="n">
+        <v>-0.262910632205396</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.219170696311658</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n">
         <v>-0.0348560643239372</v>
@@ -771,10 +867,16 @@
       <c r="F18" t="n">
         <v>0.693802521516398</v>
       </c>
+      <c r="G18" t="n">
+        <v>-0.171476089176651</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.101763960528777</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19" t="n">
         <v>-0.12194076239266</v>
@@ -791,10 +893,16 @@
       <c r="F19" t="n">
         <v>0.693802521516398</v>
       </c>
+      <c r="G19" t="n">
+        <v>-0.599893460488961</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.356011935703642</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B20" t="n">
         <v>-0.120653131356556</v>
@@ -811,10 +919,16 @@
       <c r="F20" t="n">
         <v>0.693802521516398</v>
       </c>
+      <c r="G20" t="n">
+        <v>-0.593558897518181</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.352252634805069</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21" t="n">
         <v>0.0213825020659394</v>
@@ -831,10 +945,16 @@
       <c r="F21" t="n">
         <v>0.0192649124558864</v>
       </c>
+      <c r="G21" t="n">
+        <v>0.00116547685628543</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.0415995272755933</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B22" t="n">
         <v>0.0562385663898766</v>
@@ -851,10 +971,16 @@
       <c r="F22" t="n">
         <v>0.205361843192763</v>
       </c>
+      <c r="G22" t="n">
+        <v>-0.0793189062718298</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.191796039051583</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n">
         <v>0.0748047335336322</v>
@@ -871,10 +997,16 @@
       <c r="F23" t="n">
         <v>0.0192649124558864</v>
       </c>
+      <c r="G23" t="n">
+        <v>0.00407731449786333</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.145532152569401</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n">
         <v>0.196745495926292</v>
@@ -891,10 +1023,16 @@
       <c r="F24" t="n">
         <v>0.205361843192763</v>
       </c>
+      <c r="G24" t="n">
+        <v>-0.277489960227567</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.67098095208015</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B25" t="n">
         <v>0.0769131954628179</v>
@@ -911,10 +1049,16 @@
       <c r="F25" t="n">
         <v>0.0171361599237657</v>
       </c>
+      <c r="G25" t="n">
+        <v>0.00588889376575046</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.147937497159885</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B26" t="n">
         <v>0.197566326819374</v>
@@ -930,6 +1074,12 @@
       </c>
       <c r="F26" t="n">
         <v>0.204426729973836</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.276740196640265</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.671872850279013</v>
       </c>
     </row>
   </sheetData>
